--- a/main/static/records/Grade4.xlsx
+++ b/main/static/records/Grade4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="143">
   <si>
     <t xml:space="preserve">RFID NUMBER</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0175</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006948665</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">09995935656</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0057</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006948660</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t xml:space="preserve">09953818963</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0058</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006948643</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t xml:space="preserve">09087403691</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0057</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barcia</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t xml:space="preserve">09216603627</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0164</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006948638</t>
   </si>
   <si>
@@ -169,6 +184,9 @@
     <t xml:space="preserve">09124367089</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0036</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006948621</t>
   </si>
   <si>
@@ -190,6 +208,9 @@
     <t xml:space="preserve">09951421160</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0088</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007085172</t>
   </si>
   <si>
@@ -211,6 +232,9 @@
     <t xml:space="preserve">09482741497</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0084</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007085193</t>
   </si>
   <si>
@@ -232,6 +256,9 @@
     <t xml:space="preserve">09186362271</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0091</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007085194</t>
   </si>
   <si>
@@ -253,6 +280,9 @@
     <t xml:space="preserve">09481007656</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0033</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007085216</t>
   </si>
   <si>
@@ -274,6 +304,9 @@
     <t xml:space="preserve">09398218380</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0213</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007085215</t>
   </si>
   <si>
@@ -295,6 +328,9 @@
     <t xml:space="preserve">09467588337</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0126</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007084998</t>
   </si>
   <si>
@@ -316,6 +352,9 @@
     <t xml:space="preserve">09095788624</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0006</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007085020</t>
   </si>
   <si>
@@ -337,6 +376,9 @@
     <t xml:space="preserve">09276789020</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0143</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007085021</t>
   </si>
   <si>
@@ -358,6 +400,9 @@
     <t xml:space="preserve">09493722423</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0128</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007085238</t>
   </si>
   <si>
@@ -379,6 +424,9 @@
     <t xml:space="preserve">09501595912</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0143</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007085237</t>
   </si>
   <si>
@@ -398,6 +446,9 @@
   </si>
   <si>
     <t xml:space="preserve">09095613595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-0173</t>
   </si>
 </sst>
 </file>
@@ -679,22 +730,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,418 +796,469 @@
       <c r="H2" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
